--- a/Test Data/TestData.xlsx
+++ b/Test Data/TestData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20730" windowHeight="8145"/>
+    <workbookView windowWidth="20490" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>FirstName</t>
   </si>
@@ -74,6 +75,54 @@
   </si>
   <si>
     <t>sdhjhdfjnc@gmail.com</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>C5000</t>
+  </si>
+  <si>
+    <t>Session has been timeout.</t>
+  </si>
+  <si>
+    <t>C1010</t>
+  </si>
+  <si>
+    <t>User not able to reset password.</t>
+  </si>
+  <si>
+    <t>C5001</t>
+  </si>
+  <si>
+    <t>User authenication has been failed.</t>
+  </si>
+  <si>
+    <t>C2002</t>
+  </si>
+  <si>
+    <t>Blaze has been declined.</t>
+  </si>
+  <si>
+    <t>C2010</t>
+  </si>
+  <si>
+    <t>Unisys has been declined.</t>
+  </si>
+  <si>
+    <t>C5090</t>
+  </si>
+  <si>
+    <t>Blaze timeout.</t>
+  </si>
+  <si>
+    <t>C2001</t>
+  </si>
+  <si>
+    <t>Customer not able to register</t>
   </si>
 </sst>
 </file>
@@ -82,9 +131,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -104,21 +153,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +196,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -154,46 +242,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,9 +273,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,12 +296,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -262,196 +317,207 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -472,6 +538,70 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -486,11 +616,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,41 +646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -553,67 +654,52 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,111 +708,116 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1050,7 +1141,7 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1065,102 +1156,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>23434343</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="b">
+      <c r="F2" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>989893284</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="b">
+      <c r="F3" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>16287819</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="b">
+      <c r="F4" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="b">
+      <c r="F5" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1174,4 +1265,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="35.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>